--- a/biology/Botanique/Chlorophytina/Chlorophytina.xlsx
+++ b/biology/Botanique/Chlorophytina/Chlorophytina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorophytina sont une sous-division d'algues vertes de la division des Chlorophyta.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des algues vertes chlorophylliennes à cytokinèse sans phragmoplaste, à structure multicouche et sans racines ciliaires, sauf chez Mesostigma, Pterosperma et Halosphaerasine phragmoplastis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des algues vertes chlorophylliennes à cytokinèse sans phragmoplaste, à structure multicouche et sans racines ciliaires, sauf chez Mesostigma, Pterosperma et Halosphaerasine phragmoplastis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon a été proposé en 1998 par le taxinomiste britannique Thomas Cavalier-Smith, lui incluant les infra-divisions des †Prasinophytae et des Tetraphytae[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a été proposé en 1998 par le taxinomiste britannique Thomas Cavalier-Smith, lui incluant les infra-divisions des †Prasinophytae et des Tetraphytae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon l'AlgaeBase                                           (14 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon l'AlgaeBase                                           (14 avril 2024) :
 Chlorodendrophyceae Massjuk, 2006
 Chlorophyceae Wille, 1884
 Pedinophyceae Moestrup, 1991
